--- a/doc/studies.xlsx
+++ b/doc/studies.xlsx
@@ -288,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,14 +331,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -363,11 +355,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -396,12 +387,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -683,7 +670,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -775,7 +762,7 @@
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1169,10 +1156,7 @@
       <c r="K14" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>